--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -6,26 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,43 +53,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="533400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.42578125" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
+    <row r="1"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -63,9 +63,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -84,7 +84,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="533400" cy="190500"/>
+          <a:ext cx="5334000" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
